--- a/xlsx/汽车燃油经济性_intext.xlsx
+++ b/xlsx/汽车燃油经济性_intext.xlsx
@@ -29,7 +29,7 @@
     <t>Honda</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_汽车燃油经济性</t>
+    <t>政策_政策_混合动力车辆_汽车燃油经济性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BD%A6</t>
@@ -47,7 +47,7 @@
     <t>https://ja.wikipedia.org/wiki/10%E3%83%BB15%E3%83%A2%E3%83%BC%E3%83%89%E7%87%83%E8%B2%BB</t>
   </si>
   <si>
-    <t>ja-10・15モード燃費</t>
+    <t>ja-10・15モード燃费</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/JC08%E3%83%A2%E3%83%BC%E3%83%89</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%94%E9%9B%BB%E5%8B%95%E8%BB%8A</t>
   </si>
   <si>
-    <t>純電動車</t>
+    <t>纯电动车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%B1%A0%E9%9B%BB%E5%8B%95%E8%BB%8A</t>
   </si>
   <si>
-    <t>電池電動車</t>
+    <t>电池电动车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%8A%A8%E8%BD%A6</t>
